--- a/data_preprocessing/summary_statistics_cat.xlsx
+++ b/data_preprocessing/summary_statistics_cat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,371 +436,308 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>lastTicketingDate</t>
+          <t>count</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>lastTicketingDateTime</t>
+          <t>unique</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>validatingAirlineCodes</t>
+          <t>top</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Airline</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Branded Fares</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Branded Fare Labels</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>BAGGAGE_description</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>BAGGAGE_isChargeable</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Airport layover 1</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Airport layover 2</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>First flight departure</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Second flight departure</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Third flight departure</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>First flight arrival</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Second flight arrival</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Third flight arrival</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Meal Option</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Flight depature date</t>
+          <t>freq</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>count</t>
+          <t>lastTicketingDate</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>735</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>735</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>735</v>
       </c>
       <c r="E2" t="n">
-        <v>735</v>
-      </c>
-      <c r="F2" t="n">
-        <v>725</v>
-      </c>
-      <c r="G2" t="n">
-        <v>725</v>
-      </c>
-      <c r="H2" t="n">
-        <v>660</v>
-      </c>
-      <c r="I2" t="n">
-        <v>660</v>
-      </c>
-      <c r="J2" t="n">
-        <v>716</v>
-      </c>
-      <c r="K2" t="n">
-        <v>51</v>
-      </c>
-      <c r="L2" t="n">
-        <v>735</v>
-      </c>
-      <c r="M2" t="n">
-        <v>716</v>
-      </c>
-      <c r="N2" t="n">
-        <v>51</v>
-      </c>
-      <c r="O2" t="n">
-        <v>735</v>
-      </c>
-      <c r="P2" t="n">
-        <v>716</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>51</v>
-      </c>
-      <c r="R2" t="n">
-        <v>652</v>
-      </c>
-      <c r="S2" t="n">
-        <v>735</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>unique</t>
+          <t>validatingAirlineCodes</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>735</v>
       </c>
       <c r="E3" t="n">
-        <v>21</v>
-      </c>
-      <c r="F3" t="n">
-        <v>15</v>
-      </c>
-      <c r="G3" t="n">
-        <v>12</v>
-      </c>
-      <c r="H3" t="n">
-        <v>13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>20</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3</v>
-      </c>
-      <c r="L3" t="n">
-        <v>77</v>
-      </c>
-      <c r="M3" t="n">
-        <v>51</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3</v>
-      </c>
-      <c r="O3" t="n">
-        <v>82</v>
-      </c>
-      <c r="P3" t="n">
-        <v>52</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3</v>
-      </c>
-      <c r="R3" t="n">
-        <v>13</v>
-      </c>
-      <c r="S3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>top</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2024-05-25</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2024-05-25</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>AF</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>AY</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>LIGHT</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>ECONOMY LIGHT</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>CHECKED BAGGAGE UP TO 23KGS</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> FRA</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> PDL</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>2024-05-19 06:00:00</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>2024-05-19 17:20:00</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>2024-05-19 17:30:00</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>2024-05-19 08:25:00</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>2024-05-19 20:05:00</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>2024-05-19 19:35:00</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>CATERING ON EUROPE FLTS</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>2024-06-20</t>
-        </is>
+          <t>Branded Fare Labels</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>725</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>freq</t>
+          <t>BAGGAGE_description</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>234</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>234</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>139</v>
+        <v>660</v>
       </c>
       <c r="E5" t="n">
-        <v>145</v>
-      </c>
-      <c r="F5" t="n">
-        <v>191</v>
-      </c>
-      <c r="G5" t="n">
-        <v>453</v>
-      </c>
-      <c r="H5" t="n">
-        <v>139</v>
-      </c>
-      <c r="I5" t="n">
-        <v>632</v>
-      </c>
-      <c r="J5" t="n">
-        <v>129</v>
-      </c>
-      <c r="K5" t="n">
-        <v>30</v>
-      </c>
-      <c r="L5" t="n">
-        <v>44</v>
-      </c>
-      <c r="M5" t="n">
-        <v>46</v>
-      </c>
-      <c r="N5" t="n">
-        <v>30</v>
-      </c>
-      <c r="O5" t="n">
-        <v>55</v>
-      </c>
-      <c r="P5" t="n">
-        <v>67</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>30</v>
-      </c>
-      <c r="R5" t="n">
-        <v>156</v>
-      </c>
-      <c r="S5" t="n">
-        <v>118</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>BAGGAGE_isChargeable</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>660</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Airport layover 1</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>716</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Airport layover 2</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>51</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>First flight departure</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>735</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Second flight departure</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>716</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Third flight departure</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>51</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>First flight arrival</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>735</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Second flight arrival</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>716</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Third flight arrival</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" t="n">
+        <v>51</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Meal Option</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>652</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Flight depature date</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>735</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
